--- a/data/report_df/rids.xlsx
+++ b/data/report_df/rids.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
   <si>
     <t>91804c27b57640888896bf847abf0d92</t>
   </si>
@@ -32,6 +32,27 @@
   </si>
   <si>
     <t>80db489140814dbf82a335e95e0c6037</t>
+  </si>
+  <si>
+    <t>79cdc512f3ee4d12821547a1d96184f0</t>
+  </si>
+  <si>
+    <t>7e2115889fb048f28b00eecb08e76dd2</t>
+  </si>
+  <si>
+    <t>b1a9f088f6a4438ebb5a52136210571c</t>
+  </si>
+  <si>
+    <t>fd90044f69be404e9dbf899f69598a5f</t>
+  </si>
+  <si>
+    <t>34dbfda2740e47a783e5a6b28bcf70b7</t>
+  </si>
+  <si>
+    <t>f9c71db1a1c440d98d32bf52d0cff3b5</t>
+  </si>
+  <si>
+    <t>2b03c3ecaae24f01b22a469804aea182</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +574,167 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
